--- a/files/reporte-movilidad-salida.xlsx
+++ b/files/reporte-movilidad-salida.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -74,39 +74,6 @@
   </si>
   <si>
     <t>Autor</t>
-  </si>
-  <si>
-    <t>periodo2</t>
-  </si>
-  <si>
-    <t>milan</t>
-  </si>
-  <si>
-    <t>italia</t>
-  </si>
-  <si>
-    <t>maria</t>
-  </si>
-  <si>
-    <t>catolica</t>
-  </si>
-  <si>
-    <t>lopez</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>ingenieria</t>
-  </si>
-  <si>
-    <t>itali</t>
-  </si>
-  <si>
-    <t>itialiano</t>
-  </si>
-  <si>
-    <t>Estancias Sabaticas</t>
   </si>
 </sst>
 </file>
@@ -487,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="21" width="10" customWidth="1"/>
@@ -558,68 +525,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>12345</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2">
-        <v>13245</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2">
-        <v>335435</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2">
-        <v>5436543</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2">
-        <v>2</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
